--- a/output/farmamundi.xlsx
+++ b/output/farmamundi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="127">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -726,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ88"/>
+  <dimension ref="A1:AM88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,7 +744,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,10 +853,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -946,15 +964,24 @@
         <v>0.3965407263923352</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>641079</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1053,15 +1080,24 @@
         <v>0.3965407263923352</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>956808</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1160,15 +1196,24 @@
         <v>0.3965407263923352</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>923739</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1267,15 +1312,24 @@
         <v>0.3965407263923352</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1374,15 +1428,24 @@
         <v>0.3965407263923352</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>225009</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1481,15 +1544,24 @@
         <v>0.3713288523484763</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>538796</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1588,15 +1660,24 @@
         <v>0.3713288523484763</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>310158</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1695,15 +1776,24 @@
         <v>0.3713288523484763</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>53876</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1802,15 +1892,24 @@
         <v>0.3713288523484763</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>790892</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1909,15 +2008,24 @@
         <v>0.3713288523484763</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>1749762</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2016,15 +2124,24 @@
         <v>0.3713288523484763</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>505050</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2123,15 +2240,24 @@
         <v>0.3713288523484763</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>721216</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2230,15 +2356,24 @@
         <v>0.3713288523484763</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>87684</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2337,15 +2472,24 @@
         <v>0.3713288523484763</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>176049</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2444,15 +2588,24 @@
         <v>0.5724012436166089</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>457805</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2551,15 +2704,24 @@
         <v>0.5724012436166089</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>62507</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2658,15 +2820,24 @@
         <v>0.5724012436166089</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>190903</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2765,15 +2936,24 @@
         <v>0.5724012436166089</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>193624</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2872,15 +3052,24 @@
         <v>0.5724012436166089</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>38208</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2979,15 +3168,24 @@
         <v>0.5724012436166089</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>218028</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3086,15 +3284,24 @@
         <v>0.5724012436166089</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>598168</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3193,15 +3400,24 @@
         <v>0.5724012436166089</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>79511</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3300,15 +3516,24 @@
         <v>0.5724012436166089</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>902787</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3407,15 +3632,24 @@
         <v>0.5724012436166089</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>244445</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3514,15 +3748,24 @@
         <v>0.5724012436166089</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>201531</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3621,15 +3864,24 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>297436.345</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3728,15 +3980,24 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>257155.74</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3835,15 +4096,24 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>289955.145</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3942,15 +4212,24 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>80117.23</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4049,15 +4328,24 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>53801.565</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4156,15 +4444,24 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>106327.01</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4263,21 +4560,30 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>4302.5</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4370,15 +4676,24 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>15000</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4477,15 +4792,24 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>12502.47</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4584,15 +4908,24 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>7522.36</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -4691,15 +5024,24 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>18914.335</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4798,15 +5140,24 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>7160.31</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4905,15 +5256,24 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>297436.345</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5012,15 +5372,24 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>257155.74</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5119,15 +5488,24 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>289955.145</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5226,15 +5604,24 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>80117.23</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5333,15 +5720,24 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>53801.565</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5440,15 +5836,24 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>106327.01</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5547,21 +5952,30 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>4302.5</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -5654,15 +6068,24 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>15000</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5761,15 +6184,24 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>12502.47</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -5868,15 +6300,24 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>7522.36</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -5975,15 +6416,24 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>18914.335</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6082,15 +6532,24 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>7160.31</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6189,15 +6648,24 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>253998.5</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6296,15 +6764,24 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>334754.03</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6403,15 +6880,24 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>582375.625</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -6510,15 +6996,24 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>29987</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6617,15 +7112,24 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>59509.5</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -6724,15 +7228,24 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>2998705</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -6831,15 +7344,24 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>71281.5</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6938,15 +7460,24 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>1</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>326928</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7045,15 +7576,24 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>383365.45</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7152,15 +7692,24 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>1</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>5005</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7259,15 +7808,24 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>77107.825</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7366,21 +7924,30 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>4533786</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -7473,15 +8040,24 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>13375</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7580,15 +8156,24 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>59509.5</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7687,15 +8272,24 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>253998.5</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7794,15 +8388,24 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>1</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>334754.03</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -7901,15 +8504,24 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>1</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>582375.625</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8008,15 +8620,24 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>29987</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8115,15 +8736,24 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>59509.5</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8222,15 +8852,24 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>2998705</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8329,15 +8968,24 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>71281.5</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8436,15 +9084,24 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>326928</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8543,15 +9200,24 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>1</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>383365.45</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8650,15 +9316,24 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>1</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>5005</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -8757,15 +9432,24 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>77107.825</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -8864,21 +9548,30 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI76">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>4533786</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -8971,15 +9664,24 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>13375</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9078,15 +9780,24 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>59509.5</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9185,15 +9896,24 @@
         <v>0.3799701598213254</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>618894</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -9292,15 +10012,24 @@
         <v>0.3799701598213254</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>1</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>131560</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -9399,15 +10128,24 @@
         <v>0.3799701598213254</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>1</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>911436</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -9506,15 +10244,24 @@
         <v>0.3799701598213254</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>1</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>1223952</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -9613,15 +10360,24 @@
         <v>0.3799701598213254</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>72703</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -9720,15 +10476,24 @@
         <v>0.3799701598213254</v>
       </c>
       <c r="AI84">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>288553</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -9827,15 +10592,24 @@
         <v>0.3799701598213254</v>
       </c>
       <c r="AI85">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>171028</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -9934,15 +10708,24 @@
         <v>0.3799701598213254</v>
       </c>
       <c r="AI86">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>1</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
         <v>443499</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10041,21 +10824,30 @@
         <v>0.3799701598213254</v>
       </c>
       <c r="AI87">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>1</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
         <v>278154</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -10148,9 +10940,18 @@
         <v>0.3799701598213254</v>
       </c>
       <c r="AI88">
-        <v>1</v>
+        <v>1993</v>
       </c>
       <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
         <v>35963</v>
       </c>
     </row>

--- a/output/farmamundi.xlsx
+++ b/output/farmamundi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -735,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM88"/>
+  <dimension ref="A1:AO88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -744,7 +750,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,10 +868,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -922,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>2302024</v>
+        <v>3135230</v>
       </c>
       <c r="U2">
         <v>37</v>
@@ -958,30 +970,36 @@
         <v>4093293</v>
       </c>
       <c r="AG2">
-        <v>5805265</v>
+        <v>6638471</v>
       </c>
       <c r="AH2">
-        <v>0.3965407263923352</v>
+        <v>0.4722819456468214</v>
       </c>
       <c r="AI2">
+        <v>0.06448533103481208</v>
+      </c>
+      <c r="AJ2">
         <v>1993</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>641079</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1038,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2302024</v>
+        <v>3135230</v>
       </c>
       <c r="U3">
         <v>37</v>
@@ -1074,30 +1092,36 @@
         <v>2565774</v>
       </c>
       <c r="AG3">
-        <v>5805265</v>
+        <v>6638471</v>
       </c>
       <c r="AH3">
-        <v>0.3965407263923352</v>
+        <v>0.4722819456468214</v>
       </c>
       <c r="AI3">
+        <v>0.06448533103481208</v>
+      </c>
+      <c r="AJ3">
         <v>1993</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>956808</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1154,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2302024</v>
+        <v>3135230</v>
       </c>
       <c r="U4">
         <v>37</v>
@@ -1190,30 +1214,36 @@
         <v>4231773</v>
       </c>
       <c r="AG4">
-        <v>5805265</v>
+        <v>6638471</v>
       </c>
       <c r="AH4">
-        <v>0.3965407263923352</v>
+        <v>0.4722819456468214</v>
       </c>
       <c r="AI4">
+        <v>0.06448533103481208</v>
+      </c>
+      <c r="AJ4">
         <v>1993</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>923739</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1270,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2302024</v>
+        <v>3135230</v>
       </c>
       <c r="U5">
         <v>37</v>
@@ -1306,30 +1336,36 @@
         <v>1570343</v>
       </c>
       <c r="AG5">
-        <v>5805265</v>
+        <v>6638471</v>
       </c>
       <c r="AH5">
-        <v>0.3965407263923352</v>
+        <v>0.4722819456468214</v>
       </c>
       <c r="AI5">
+        <v>0.06448533103481208</v>
+      </c>
+      <c r="AJ5">
         <v>1993</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1386,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>2302024</v>
+        <v>3135230</v>
       </c>
       <c r="U6">
         <v>37</v>
@@ -1422,30 +1458,36 @@
         <v>5201043</v>
       </c>
       <c r="AG6">
-        <v>5805265</v>
+        <v>6638471</v>
       </c>
       <c r="AH6">
-        <v>0.3965407263923352</v>
+        <v>0.4722819456468214</v>
       </c>
       <c r="AI6">
+        <v>0.06448533103481208</v>
+      </c>
+      <c r="AJ6">
         <v>1993</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>225009</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1544,24 +1586,30 @@
         <v>0.3713288523484763</v>
       </c>
       <c r="AI7">
+        <v>0.07323796403510877</v>
+      </c>
+      <c r="AJ7">
         <v>1993</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>538796</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1660,24 +1708,30 @@
         <v>0.3713288523484763</v>
       </c>
       <c r="AI8">
+        <v>0.07323796403510877</v>
+      </c>
+      <c r="AJ8">
         <v>1993</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>310158</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1776,24 +1830,30 @@
         <v>0.3713288523484763</v>
       </c>
       <c r="AI9">
+        <v>0.07323796403510877</v>
+      </c>
+      <c r="AJ9">
         <v>1993</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>53876</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1892,24 +1952,30 @@
         <v>0.3713288523484763</v>
       </c>
       <c r="AI10">
+        <v>0.07323796403510877</v>
+      </c>
+      <c r="AJ10">
         <v>1993</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>790892</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2008,24 +2074,30 @@
         <v>0.3713288523484763</v>
       </c>
       <c r="AI11">
+        <v>0.07323796403510877</v>
+      </c>
+      <c r="AJ11">
         <v>1993</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>1749762</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2124,24 +2196,30 @@
         <v>0.3713288523484763</v>
       </c>
       <c r="AI12">
+        <v>0.07323796403510877</v>
+      </c>
+      <c r="AJ12">
         <v>1993</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>505050</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2240,24 +2318,30 @@
         <v>0.3713288523484763</v>
       </c>
       <c r="AI13">
+        <v>0.07323796403510877</v>
+      </c>
+      <c r="AJ13">
         <v>1993</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>1</v>
       </c>
       <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>721216</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2356,24 +2440,30 @@
         <v>0.3713288523484763</v>
       </c>
       <c r="AI14">
+        <v>0.07323796403510877</v>
+      </c>
+      <c r="AJ14">
         <v>1993</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>87684</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2472,24 +2562,30 @@
         <v>0.3713288523484763</v>
       </c>
       <c r="AI15">
+        <v>0.07323796403510877</v>
+      </c>
+      <c r="AJ15">
         <v>1993</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15">
         <v>1</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>176049</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2546,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>3891135</v>
+        <v>3891399</v>
       </c>
       <c r="U16">
         <v>36</v>
@@ -2582,30 +2678,36 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>6797915</v>
+        <v>6798179</v>
       </c>
       <c r="AH16">
-        <v>0.5724012436166089</v>
+        <v>0.5724178489563161</v>
       </c>
       <c r="AI16">
+        <v>0.1079381699128546</v>
+      </c>
+      <c r="AJ16">
         <v>1993</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>457805</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2662,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>3891135</v>
+        <v>3891399</v>
       </c>
       <c r="U17">
         <v>36</v>
@@ -2698,30 +2800,36 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>6797915</v>
+        <v>6798179</v>
       </c>
       <c r="AH17">
-        <v>0.5724012436166089</v>
+        <v>0.5724178489563161</v>
       </c>
       <c r="AI17">
+        <v>0.1079381699128546</v>
+      </c>
+      <c r="AJ17">
         <v>1993</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>62507</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2778,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>3891135</v>
+        <v>3891399</v>
       </c>
       <c r="U18">
         <v>36</v>
@@ -2814,30 +2922,36 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>6797915</v>
+        <v>6798179</v>
       </c>
       <c r="AH18">
-        <v>0.5724012436166089</v>
+        <v>0.5724178489563161</v>
       </c>
       <c r="AI18">
+        <v>0.1079381699128546</v>
+      </c>
+      <c r="AJ18">
         <v>1993</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>190903</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2894,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>3891135</v>
+        <v>3891399</v>
       </c>
       <c r="U19">
         <v>36</v>
@@ -2930,30 +3044,36 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>6797915</v>
+        <v>6798179</v>
       </c>
       <c r="AH19">
-        <v>0.5724012436166089</v>
+        <v>0.5724178489563161</v>
       </c>
       <c r="AI19">
+        <v>0.1079381699128546</v>
+      </c>
+      <c r="AJ19">
         <v>1993</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
         <v>0</v>
       </c>
       <c r="AL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>193624</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3010,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3891135</v>
+        <v>3891399</v>
       </c>
       <c r="U20">
         <v>36</v>
@@ -3046,30 +3166,36 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>6797915</v>
+        <v>6798179</v>
       </c>
       <c r="AH20">
-        <v>0.5724012436166089</v>
+        <v>0.5724178489563161</v>
       </c>
       <c r="AI20">
+        <v>0.1079381699128546</v>
+      </c>
+      <c r="AJ20">
         <v>1993</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>38208</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3126,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>3891135</v>
+        <v>3891399</v>
       </c>
       <c r="U21">
         <v>36</v>
@@ -3162,30 +3288,36 @@
         <v>2407765</v>
       </c>
       <c r="AG21">
-        <v>6797915</v>
+        <v>6798179</v>
       </c>
       <c r="AH21">
-        <v>0.5724012436166089</v>
+        <v>0.5724178489563161</v>
       </c>
       <c r="AI21">
+        <v>0.1079381699128546</v>
+      </c>
+      <c r="AJ21">
         <v>1993</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>218028</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3242,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>3891135</v>
+        <v>3891399</v>
       </c>
       <c r="U22">
         <v>36</v>
@@ -3278,30 +3410,36 @@
         <v>2140362</v>
       </c>
       <c r="AG22">
-        <v>6797915</v>
+        <v>6798179</v>
       </c>
       <c r="AH22">
-        <v>0.5724012436166089</v>
+        <v>0.5724178489563161</v>
       </c>
       <c r="AI22">
+        <v>0.1079381699128546</v>
+      </c>
+      <c r="AJ22">
         <v>1993</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22">
         <v>1</v>
       </c>
       <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>598168</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3358,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3891135</v>
+        <v>3891399</v>
       </c>
       <c r="U23">
         <v>36</v>
@@ -3394,30 +3532,36 @@
         <v>3746015</v>
       </c>
       <c r="AG23">
-        <v>6797915</v>
+        <v>6798179</v>
       </c>
       <c r="AH23">
-        <v>0.5724012436166089</v>
+        <v>0.5724178489563161</v>
       </c>
       <c r="AI23">
+        <v>0.1079381699128546</v>
+      </c>
+      <c r="AJ23">
         <v>1993</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>79511</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3474,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>3891135</v>
+        <v>3891399</v>
       </c>
       <c r="U24">
         <v>36</v>
@@ -3510,30 +3654,36 @@
         <v>2121035</v>
       </c>
       <c r="AG24">
-        <v>6797915</v>
+        <v>6798179</v>
       </c>
       <c r="AH24">
-        <v>0.5724012436166089</v>
+        <v>0.5724178489563161</v>
       </c>
       <c r="AI24">
+        <v>0.1079381699128546</v>
+      </c>
+      <c r="AJ24">
         <v>1993</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>902787</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3590,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>3891135</v>
+        <v>3891399</v>
       </c>
       <c r="U25">
         <v>36</v>
@@ -3626,30 +3776,36 @@
         <v>1979992</v>
       </c>
       <c r="AG25">
-        <v>6797915</v>
+        <v>6798179</v>
       </c>
       <c r="AH25">
-        <v>0.5724012436166089</v>
+        <v>0.5724178489563161</v>
       </c>
       <c r="AI25">
+        <v>0.1079381699128546</v>
+      </c>
+      <c r="AJ25">
         <v>1993</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>244445</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3706,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>3891135</v>
+        <v>3891399</v>
       </c>
       <c r="U26">
         <v>36</v>
@@ -3742,30 +3898,36 @@
         <v>2299220</v>
       </c>
       <c r="AG26">
-        <v>6797915</v>
+        <v>6798179</v>
       </c>
       <c r="AH26">
-        <v>0.5724012436166089</v>
+        <v>0.5724178489563161</v>
       </c>
       <c r="AI26">
+        <v>0.1079381699128546</v>
+      </c>
+      <c r="AJ26">
         <v>1993</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>1</v>
       </c>
       <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>201531</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3864,24 +4026,30 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
         <v>1993</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>297436.345</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3980,24 +4148,30 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
         <v>1993</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28">
         <v>1</v>
       </c>
       <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>257155.74</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4096,24 +4270,30 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
         <v>1993</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>289955.145</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4212,24 +4392,30 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
         <v>1993</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>80117.23</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4328,24 +4514,30 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
         <v>1993</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31">
         <v>1</v>
       </c>
       <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>53801.565</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4444,24 +4636,30 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
         <v>1993</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>106327.01</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4560,30 +4758,36 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
         <v>1993</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>4302.5</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4676,24 +4880,30 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
         <v>1993</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>15000</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4792,24 +5002,30 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
         <v>1993</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>12502.47</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4908,24 +5124,30 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
         <v>1993</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>7522.36</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5024,24 +5246,30 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
         <v>1993</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>18914.335</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5140,24 +5368,30 @@
         <v>0.4953841544195283</v>
       </c>
       <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
         <v>1993</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
         <v>0</v>
       </c>
       <c r="AL38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>7160.31</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5256,24 +5490,30 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
         <v>1993</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39">
         <v>1</v>
       </c>
       <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>297436.345</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5372,24 +5612,30 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
         <v>1993</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40">
         <v>1</v>
       </c>
       <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>257155.74</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5488,24 +5734,30 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
         <v>1993</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41">
         <v>1</v>
       </c>
       <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>289955.145</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5604,24 +5856,30 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
         <v>1993</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42">
         <v>1</v>
       </c>
       <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>80117.23</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5720,24 +5978,30 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
         <v>1993</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43">
         <v>1</v>
       </c>
       <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>53801.565</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5836,24 +6100,30 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
         <v>1993</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>106327.01</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5952,30 +6222,36 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
         <v>1993</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
         <v>0</v>
       </c>
       <c r="AL45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>4302.5</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6068,24 +6344,30 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
         <v>1993</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
         <v>0</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>15000</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6184,24 +6466,30 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
         <v>1993</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>12502.47</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -6300,24 +6588,30 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
         <v>1993</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
         <v>0</v>
       </c>
       <c r="AL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>7522.36</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6416,24 +6710,30 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
         <v>1993</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
         <v>0</v>
       </c>
       <c r="AL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>18914.335</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6532,24 +6832,30 @@
         <v>0.5010238406479176</v>
       </c>
       <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
         <v>1993</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
         <v>0</v>
       </c>
       <c r="AL50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>7160.31</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6588,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>5834215.12</v>
+        <v>5834215.119999999</v>
       </c>
       <c r="O51">
         <v>328706.06</v>
@@ -6648,24 +6954,30 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI51">
+        <v>0.2908262267210571</v>
+      </c>
+      <c r="AJ51">
         <v>1993</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>253998.5</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6704,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>5834215.12</v>
+        <v>5834215.119999999</v>
       </c>
       <c r="O52">
         <v>328706.06</v>
@@ -6764,24 +7076,30 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI52">
+        <v>0.2908262267210571</v>
+      </c>
+      <c r="AJ52">
         <v>1993</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52">
         <v>1</v>
       </c>
       <c r="AM52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>334754.03</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6820,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>5834215.12</v>
+        <v>5834215.119999999</v>
       </c>
       <c r="O53">
         <v>328706.06</v>
@@ -6880,24 +7198,30 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI53">
+        <v>0.2908262267210571</v>
+      </c>
+      <c r="AJ53">
         <v>1993</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53">
         <v>1</v>
       </c>
       <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>582375.625</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -6936,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>5834215.12</v>
+        <v>5834215.119999999</v>
       </c>
       <c r="O54">
         <v>328706.06</v>
@@ -6996,24 +7320,30 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI54">
+        <v>0.2908262267210571</v>
+      </c>
+      <c r="AJ54">
         <v>1993</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
         <v>0</v>
       </c>
       <c r="AL54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>29987</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7052,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>5834215.12</v>
+        <v>5834215.119999999</v>
       </c>
       <c r="O55">
         <v>328706.06</v>
@@ -7112,24 +7442,30 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI55">
+        <v>0.2908262267210571</v>
+      </c>
+      <c r="AJ55">
         <v>1993</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
         <v>0</v>
       </c>
       <c r="AL55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>59509.5</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -7168,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>5834215.12</v>
+        <v>5834215.119999999</v>
       </c>
       <c r="O56">
         <v>328706.06</v>
@@ -7228,24 +7564,30 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI56">
+        <v>0.2908262267210571</v>
+      </c>
+      <c r="AJ56">
         <v>1993</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
         <v>0</v>
       </c>
       <c r="AL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56">
+        <v>1</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>2998705</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -7284,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>5834215.12</v>
+        <v>5834215.119999999</v>
       </c>
       <c r="O57">
         <v>328706.06</v>
@@ -7344,24 +7686,30 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI57">
+        <v>0.2908262267210571</v>
+      </c>
+      <c r="AJ57">
         <v>1993</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
         <v>0</v>
       </c>
       <c r="AL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>71281.5</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7400,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>5834215.12</v>
+        <v>5834215.119999999</v>
       </c>
       <c r="O58">
         <v>328706.06</v>
@@ -7460,24 +7808,30 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI58">
+        <v>0.2908262267210571</v>
+      </c>
+      <c r="AJ58">
         <v>1993</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58">
         <v>1</v>
       </c>
       <c r="AM58">
+        <v>1</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>326928</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7516,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>5834215.12</v>
+        <v>5834215.119999999</v>
       </c>
       <c r="O59">
         <v>328706.06</v>
@@ -7576,24 +7930,30 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI59">
+        <v>0.2908262267210571</v>
+      </c>
+      <c r="AJ59">
         <v>1993</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59">
         <v>1</v>
       </c>
       <c r="AM59">
+        <v>1</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>383365.45</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7632,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>5834215.12</v>
+        <v>5834215.119999999</v>
       </c>
       <c r="O60">
         <v>328706.06</v>
@@ -7692,24 +8052,30 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI60">
+        <v>0.2908262267210571</v>
+      </c>
+      <c r="AJ60">
         <v>1993</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60">
         <v>1</v>
       </c>
       <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>5005</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7748,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>5834215.12</v>
+        <v>5834215.119999999</v>
       </c>
       <c r="O61">
         <v>328706.06</v>
@@ -7808,24 +8174,30 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI61">
+        <v>0.2908262267210571</v>
+      </c>
+      <c r="AJ61">
         <v>1993</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
         <v>0</v>
       </c>
       <c r="AL61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>77107.825</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7864,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>5834215.12</v>
+        <v>5834215.119999999</v>
       </c>
       <c r="O62">
         <v>328706.06</v>
@@ -7924,30 +8296,36 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI62">
+        <v>0.2908262267210571</v>
+      </c>
+      <c r="AJ62">
         <v>1993</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
         <v>0</v>
       </c>
       <c r="AL62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>4533786</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -7980,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>5834215.12</v>
+        <v>5834215.119999999</v>
       </c>
       <c r="O63">
         <v>328706.06</v>
@@ -8040,24 +8418,30 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI63">
+        <v>0.2908262267210571</v>
+      </c>
+      <c r="AJ63">
         <v>1993</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
         <v>0</v>
       </c>
       <c r="AL63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>13375</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8096,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>5834215.12</v>
+        <v>5834215.119999999</v>
       </c>
       <c r="O64">
         <v>328706.06</v>
@@ -8156,24 +8540,30 @@
         <v>0.3784825021140883</v>
       </c>
       <c r="AI64">
+        <v>0.2908262267210571</v>
+      </c>
+      <c r="AJ64">
         <v>1993</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
         <v>0</v>
       </c>
       <c r="AL64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>59509.5</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8272,24 +8662,30 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI65">
+        <v>0.03336440642714263</v>
+      </c>
+      <c r="AJ65">
         <v>1993</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
         <v>0</v>
       </c>
       <c r="AL65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>253998.5</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8388,24 +8784,30 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI66">
+        <v>0.03336440642714263</v>
+      </c>
+      <c r="AJ66">
         <v>1993</v>
       </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
       <c r="AK66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66">
         <v>1</v>
       </c>
       <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>334754.03</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8504,24 +8906,30 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI67">
+        <v>0.03336440642714263</v>
+      </c>
+      <c r="AJ67">
         <v>1993</v>
       </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
       <c r="AK67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67">
         <v>1</v>
       </c>
       <c r="AM67">
+        <v>1</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>582375.625</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8620,24 +9028,30 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI68">
+        <v>0.03336440642714263</v>
+      </c>
+      <c r="AJ68">
         <v>1993</v>
       </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
       <c r="AK68">
         <v>0</v>
       </c>
       <c r="AL68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>29987</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8736,24 +9150,30 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI69">
+        <v>0.03336440642714263</v>
+      </c>
+      <c r="AJ69">
         <v>1993</v>
       </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
       <c r="AK69">
         <v>0</v>
       </c>
       <c r="AL69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>59509.5</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8852,24 +9272,30 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI70">
+        <v>0.03336440642714263</v>
+      </c>
+      <c r="AJ70">
         <v>1993</v>
       </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
       <c r="AK70">
         <v>0</v>
       </c>
       <c r="AL70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM70">
+        <v>1</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
         <v>2998705</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8968,24 +9394,30 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI71">
+        <v>0.03336440642714263</v>
+      </c>
+      <c r="AJ71">
         <v>1993</v>
       </c>
-      <c r="AJ71">
-        <v>0</v>
-      </c>
       <c r="AK71">
         <v>0</v>
       </c>
       <c r="AL71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>71281.5</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -9084,24 +9516,30 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI72">
+        <v>0.03336440642714263</v>
+      </c>
+      <c r="AJ72">
         <v>1993</v>
       </c>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
       <c r="AK72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72">
         <v>1</v>
       </c>
       <c r="AM72">
+        <v>1</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
         <v>326928</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -9200,24 +9638,30 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI73">
+        <v>0.03336440642714263</v>
+      </c>
+      <c r="AJ73">
         <v>1993</v>
       </c>
-      <c r="AJ73">
-        <v>0</v>
-      </c>
       <c r="AK73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73">
         <v>1</v>
       </c>
       <c r="AM73">
+        <v>1</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
         <v>383365.45</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -9316,24 +9760,30 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI74">
+        <v>0.03336440642714263</v>
+      </c>
+      <c r="AJ74">
         <v>1993</v>
       </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
       <c r="AK74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL74">
         <v>1</v>
       </c>
       <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
         <v>5005</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -9432,24 +9882,30 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI75">
+        <v>0.03336440642714263</v>
+      </c>
+      <c r="AJ75">
         <v>1993</v>
       </c>
-      <c r="AJ75">
-        <v>0</v>
-      </c>
       <c r="AK75">
         <v>0</v>
       </c>
       <c r="AL75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
         <v>77107.825</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9548,30 +10004,36 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI76">
+        <v>0.03336440642714263</v>
+      </c>
+      <c r="AJ76">
         <v>1993</v>
       </c>
-      <c r="AJ76">
-        <v>0</v>
-      </c>
       <c r="AK76">
         <v>0</v>
       </c>
       <c r="AL76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
         <v>4533786</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -9664,24 +10126,30 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI77">
+        <v>0.03336440642714263</v>
+      </c>
+      <c r="AJ77">
         <v>1993</v>
       </c>
-      <c r="AJ77">
-        <v>0</v>
-      </c>
       <c r="AK77">
         <v>0</v>
       </c>
       <c r="AL77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
         <v>13375</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9780,24 +10248,30 @@
         <v>0.5188528239677164</v>
       </c>
       <c r="AI78">
+        <v>0.03336440642714263</v>
+      </c>
+      <c r="AJ78">
         <v>1993</v>
       </c>
-      <c r="AJ78">
-        <v>0</v>
-      </c>
       <c r="AK78">
         <v>0</v>
       </c>
       <c r="AL78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>59509.5</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9896,24 +10370,30 @@
         <v>0.3799701598213254</v>
       </c>
       <c r="AI79">
+        <v>0.05184716550190557</v>
+      </c>
+      <c r="AJ79">
         <v>1993</v>
       </c>
-      <c r="AJ79">
-        <v>0</v>
-      </c>
       <c r="AK79">
         <v>0</v>
       </c>
       <c r="AL79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
         <v>618894</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -10012,24 +10492,30 @@
         <v>0.3799701598213254</v>
       </c>
       <c r="AI80">
+        <v>0.05184716550190557</v>
+      </c>
+      <c r="AJ80">
         <v>1993</v>
       </c>
-      <c r="AJ80">
-        <v>0</v>
-      </c>
       <c r="AK80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL80">
         <v>1</v>
       </c>
       <c r="AM80">
+        <v>1</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
         <v>131560</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -10128,24 +10614,30 @@
         <v>0.3799701598213254</v>
       </c>
       <c r="AI81">
+        <v>0.05184716550190557</v>
+      </c>
+      <c r="AJ81">
         <v>1993</v>
       </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
       <c r="AK81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL81">
         <v>1</v>
       </c>
       <c r="AM81">
+        <v>1</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
         <v>911436</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -10244,24 +10736,30 @@
         <v>0.3799701598213254</v>
       </c>
       <c r="AI82">
+        <v>0.05184716550190557</v>
+      </c>
+      <c r="AJ82">
         <v>1993</v>
       </c>
-      <c r="AJ82">
-        <v>0</v>
-      </c>
       <c r="AK82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL82">
         <v>1</v>
       </c>
       <c r="AM82">
+        <v>1</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
         <v>1223952</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -10360,24 +10858,30 @@
         <v>0.3799701598213254</v>
       </c>
       <c r="AI83">
+        <v>0.05184716550190557</v>
+      </c>
+      <c r="AJ83">
         <v>1993</v>
       </c>
-      <c r="AJ83">
-        <v>0</v>
-      </c>
       <c r="AK83">
         <v>0</v>
       </c>
       <c r="AL83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
         <v>72703</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -10476,24 +10980,30 @@
         <v>0.3799701598213254</v>
       </c>
       <c r="AI84">
+        <v>0.05184716550190557</v>
+      </c>
+      <c r="AJ84">
         <v>1993</v>
       </c>
-      <c r="AJ84">
-        <v>0</v>
-      </c>
       <c r="AK84">
         <v>0</v>
       </c>
       <c r="AL84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
         <v>288553</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -10592,24 +11102,30 @@
         <v>0.3799701598213254</v>
       </c>
       <c r="AI85">
+        <v>0.05184716550190557</v>
+      </c>
+      <c r="AJ85">
         <v>1993</v>
       </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
       <c r="AK85">
         <v>0</v>
       </c>
       <c r="AL85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM85">
+        <v>1</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
         <v>171028</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -10708,24 +11224,30 @@
         <v>0.3799701598213254</v>
       </c>
       <c r="AI86">
+        <v>0.05184716550190557</v>
+      </c>
+      <c r="AJ86">
         <v>1993</v>
       </c>
-      <c r="AJ86">
-        <v>0</v>
-      </c>
       <c r="AK86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL86">
         <v>1</v>
       </c>
       <c r="AM86">
+        <v>1</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
         <v>443499</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10824,30 +11346,36 @@
         <v>0.3799701598213254</v>
       </c>
       <c r="AI87">
+        <v>0.05184716550190557</v>
+      </c>
+      <c r="AJ87">
         <v>1993</v>
       </c>
-      <c r="AJ87">
-        <v>0</v>
-      </c>
       <c r="AK87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL87">
         <v>1</v>
       </c>
       <c r="AM87">
+        <v>1</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
         <v>278154</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -10940,18 +11468,24 @@
         <v>0.3799701598213254</v>
       </c>
       <c r="AI88">
+        <v>0.05184716550190557</v>
+      </c>
+      <c r="AJ88">
         <v>1993</v>
       </c>
-      <c r="AJ88">
-        <v>0</v>
-      </c>
       <c r="AK88">
         <v>0</v>
       </c>
       <c r="AL88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
         <v>35963</v>
       </c>
     </row>

--- a/output/farmamundi.xlsx
+++ b/output/farmamundi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>2012_siria</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>2012_republica dominicana</t>
@@ -883,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1005,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D3">
         <v>312360</v>
@@ -1127,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D4">
         <v>352613</v>
@@ -1249,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4940</v>
+        <v>5191.140356354663</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1351,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -1371,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1493,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2120</v>
+        <v>2812.435974421079</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1615,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>420</v>
+        <v>401.8350013668368</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1737,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>960</v>
+        <v>951.6879611168786</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1859,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2890</v>
+        <v>2983.242707849043</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1981,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D11">
         <v>230000</v>
@@ -2103,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2205,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -2225,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D13">
         <v>350000</v>
@@ -2347,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5340</v>
+        <v>5555.389721901988</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2449,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -2469,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2591,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2120</v>
+        <v>2828.483778716848</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2713,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1120</v>
+        <v>1132.548400540401</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2835,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>430</v>
+        <v>417.6031683854853</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2957,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>990</v>
+        <v>982.980837581714</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3079,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>630</v>
+        <v>864.5379000312432</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3201,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D21">
         <v>330000</v>
@@ -3323,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D22">
         <v>230000</v>
@@ -3445,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>710</v>
+        <v>691.8942672110555</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3547,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -3567,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D24">
         <v>315000</v>
@@ -3689,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5540</v>
+        <v>5660.517066940175</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3791,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25">
         <v>0</v>
@@ -3811,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3933,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D27">
         <v>137373</v>
@@ -4055,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4177,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>3210</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D29">
         <v>230000</v>
@@ -4299,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4421,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4543,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>2390</v>
+        <v>2860.874335573629</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4665,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1050</v>
+        <v>1000.829216794104</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4786,8 +4783,8 @@
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34" t="s">
-        <v>74</v>
+      <c r="C34">
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4903,13 +4900,13 @@
     </row>
     <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>5790</v>
+        <v>5745.422744292303</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5011,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35">
         <v>0</v>
@@ -5025,13 +5022,13 @@
     </row>
     <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>760</v>
+        <v>701.4459636783288</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5133,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM36">
         <v>0</v>
@@ -5147,13 +5144,13 @@
     </row>
     <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>640</v>
+        <v>869.6014949562591</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5269,7 +5266,7 @@
     </row>
     <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5391,13 +5388,13 @@
     </row>
     <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D39">
         <v>137373</v>
@@ -5513,13 +5510,13 @@
     </row>
     <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D40">
         <v>200000</v>
@@ -5635,13 +5632,13 @@
     </row>
     <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>3350</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D41">
         <v>230932</v>
@@ -5757,13 +5754,13 @@
     </row>
     <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5879,13 +5876,13 @@
     </row>
     <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6001,13 +5998,13 @@
     </row>
     <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>2490</v>
+        <v>2887.250212489506</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6123,13 +6120,13 @@
     </row>
     <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>1130</v>
+        <v>1032.277326842402</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6245,13 +6242,13 @@
     </row>
     <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-      <c r="C46" t="s">
-        <v>74</v>
+      <c r="C46">
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6367,13 +6364,13 @@
     </row>
     <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>6020</v>
+        <v>5955.175904294275</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6475,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM47">
         <v>0</v>
@@ -6489,13 +6486,13 @@
     </row>
     <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>800</v>
+        <v>720.7128711178943</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6597,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="AL48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM48">
         <v>0</v>
@@ -6611,13 +6608,13 @@
     </row>
     <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>650</v>
+        <v>872.1235974568563</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6733,7 +6730,7 @@
     </row>
     <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6855,13 +6852,13 @@
     </row>
     <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>2590</v>
+        <v>3008.669179463094</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -6977,13 +6974,13 @@
     </row>
     <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D52">
         <v>205000</v>
@@ -7099,13 +7096,13 @@
     </row>
     <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D53">
         <v>2500000</v>
@@ -7221,13 +7218,13 @@
     </row>
     <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54">
-        <v>830</v>
+        <v>730.3063521039821</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7329,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="AL54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM54">
         <v>0</v>
@@ -7343,13 +7340,13 @@
     </row>
     <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>1240</v>
+        <v>1060.095015975378</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7465,13 +7462,13 @@
     </row>
     <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>810</v>
+        <v>707.8672001573369</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7587,13 +7584,13 @@
     </row>
     <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>770</v>
+        <v>711.3043470146426</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7709,13 +7706,13 @@
     </row>
     <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7831,13 +7828,13 @@
     </row>
     <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -7953,7 +7950,7 @@
     </row>
     <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -8075,13 +8072,13 @@
     </row>
     <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>6310</v>
+        <v>6301.696269820412</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8183,7 +8180,7 @@
         <v>0</v>
       </c>
       <c r="AL61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM61">
         <v>0</v>
@@ -8197,13 +8194,13 @@
     </row>
     <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>6330</v>
+        <v>6103.744960203087</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8319,13 +8316,13 @@
     </row>
     <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-      <c r="C63" t="s">
-        <v>74</v>
+      <c r="C63">
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8441,7 +8438,7 @@
     </row>
     <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8563,13 +8560,13 @@
     </row>
     <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>2410</v>
+        <v>3012.536723186288</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8685,13 +8682,13 @@
     </row>
     <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D66">
         <v>205000</v>
@@ -8807,13 +8804,13 @@
     </row>
     <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D67">
         <v>2500000</v>
@@ -8929,13 +8926,13 @@
     </row>
     <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>810</v>
+        <v>729.1196658666737</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9037,7 +9034,7 @@
         <v>0</v>
       </c>
       <c r="AL68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM68">
         <v>0</v>
@@ -9051,13 +9048,13 @@
     </row>
     <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>1290</v>
+        <v>1093.134170274031</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9173,13 +9170,13 @@
     </row>
     <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>790</v>
+        <v>729.7808175407341</v>
       </c>
       <c r="D70">
         <v>225786</v>
@@ -9295,13 +9292,13 @@
     </row>
     <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>780</v>
+        <v>731.9993357350996</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -9417,13 +9414,13 @@
     </row>
     <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -9539,13 +9536,13 @@
     </row>
     <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9661,7 +9658,7 @@
     </row>
     <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -9783,13 +9780,13 @@
     </row>
     <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>6480</v>
+        <v>6661.86504232374</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -9891,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="AL75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM75">
         <v>0</v>
@@ -9905,13 +9902,13 @@
     </row>
     <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>6067.5</v>
+        <v>6249.151036691844</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10027,13 +10024,13 @@
     </row>
     <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-      <c r="C77" t="s">
-        <v>74</v>
+      <c r="C77">
+        <v>0</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -10149,7 +10146,7 @@
     </row>
     <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -10271,13 +10268,13 @@
     </row>
     <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>1820</v>
+        <v>2854.757682901436</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10393,13 +10390,13 @@
     </row>
     <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10515,13 +10512,13 @@
     </row>
     <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>3510</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -10637,13 +10634,13 @@
     </row>
     <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -10759,13 +10756,13 @@
     </row>
     <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>780</v>
+        <v>729.8559996981501</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -10867,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="AL83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM83">
         <v>0</v>
@@ -10881,13 +10878,13 @@
     </row>
     <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>1360</v>
+        <v>1129.713195979213</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11003,13 +11000,13 @@
     </row>
     <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85">
-        <v>780</v>
+        <v>749.2194349876407</v>
       </c>
       <c r="D85">
         <v>197260</v>
@@ -11125,13 +11122,13 @@
     </row>
     <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -11247,13 +11244,13 @@
     </row>
     <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D87">
         <v>249861</v>
@@ -11369,13 +11366,13 @@
     </row>
     <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
-      <c r="C88" t="s">
-        <v>74</v>
+      <c r="C88">
+        <v>0</v>
       </c>
       <c r="D88">
         <v>0</v>

--- a/output/farmamundi.xlsx
+++ b/output/farmamundi.xlsx
@@ -1005,7 +1005,7 @@
         <v>2870.311589353206</v>
       </c>
       <c r="D3">
-        <v>312360</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>496876</v>
@@ -3323,7 +3323,7 @@
         <v>2965.153206179127</v>
       </c>
       <c r="D22">
-        <v>230000</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>1749762</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>4125.78</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>2675.677541978231</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5397,10 +5397,10 @@
         <v>1716.389195271215</v>
       </c>
       <c r="D39">
-        <v>137373</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>297436.345</v>
+        <v>902787</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -5522,7 +5522,7 @@
         <v>200000</v>
       </c>
       <c r="E40">
-        <v>257155.74</v>
+        <v>598168</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -5644,7 +5644,7 @@
         <v>230932</v>
       </c>
       <c r="E41">
-        <v>289955.145</v>
+        <v>218028</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>80117.23</v>
+        <v>201531</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>53801.565</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -6010,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>106327.01</v>
+        <v>457805</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>4302.5</v>
+        <v>193624</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -6248,13 +6248,13 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1526.54</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -6376,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>12502.47</v>
+        <v>244445</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>7522.36</v>
+        <v>79511</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -6620,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>18914.335</v>
+        <v>38208</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -6736,13 +6736,13 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>2670.127177203784</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>7160.31</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -7956,7 +7956,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1031.276228639696</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8322,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1366.25</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8444,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>2603.521013626997</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>253998.5</v>
+        <v>106327.01</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -8691,10 +8691,10 @@
         <v>3314.741082534716</v>
       </c>
       <c r="D66">
-        <v>205000</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>334754.03</v>
+        <v>289955.145</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -8813,10 +8813,10 @@
         <v>3210.869677115934</v>
       </c>
       <c r="D67">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>582375.625</v>
+        <v>257155.74</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>107</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68">
         <v>729.1196658666737</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>29987</v>
+        <v>7522.36</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>59509.5</v>
+        <v>4302.5</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>109</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>729.7808175407341</v>
@@ -9182,7 +9182,7 @@
         <v>225786</v>
       </c>
       <c r="E70">
-        <v>2998705</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -9295,7 +9295,7 @@
         <v>110</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>731.9993357350996</v>
@@ -9304,7 +9304,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>71281.5</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>326928</v>
+        <v>297436.345</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>383365.45</v>
+        <v>53801.565</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -9664,13 +9664,13 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1063.277878861239</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>5005</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -9792,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>77107.825</v>
+        <v>12502.47</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -9914,7 +9914,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>4533786</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -10030,13 +10030,13 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1404.51</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>13375</v>
+        <v>15000</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>2631.811984847832</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>59509.5</v>
+        <v>7160.31</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>941.02</v>
       </c>
       <c r="D88">
         <v>0</v>
